--- a/myapp/app-server/data.xlsx
+++ b/myapp/app-server/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="57"/>
-    <sheet name="boards" r:id="rId7" sheetId="58"/>
-    <sheet name="projects" r:id="rId5" sheetId="59"/>
+    <sheet name="users" r:id="rId6" sheetId="66"/>
+    <sheet name="boards" r:id="rId7" sheetId="67"/>
+    <sheet name="projects" r:id="rId5" sheetId="68"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="49">
   <si>
     <t>no</t>
   </si>
@@ -203,7 +203,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -301,7 +301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -382,7 +382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F3"/>
   <sheetViews>

--- a/myapp/app-server/data.xlsx
+++ b/myapp/app-server/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="66"/>
-    <sheet name="boards" r:id="rId7" sheetId="67"/>
-    <sheet name="projects" r:id="rId5" sheetId="68"/>
+    <sheet name="users" r:id="rId6" sheetId="94"/>
+    <sheet name="boards" r:id="rId7" sheetId="95"/>
+    <sheet name="projects" r:id="rId5" sheetId="96"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4877" uniqueCount="142">
   <si>
     <t>no</t>
   </si>
@@ -40,10 +40,10 @@
     <t>user1@test.com</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>010-5423-7645</t>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>010-1111-1111</t>
   </si>
   <si>
     <t>2</t>
@@ -55,64 +55,196 @@
     <t>user2@test.com</t>
   </si>
   <si>
-    <t>010-6556-5433</t>
+    <t>010-1111-2222</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user5@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-5555</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user6@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-6666</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user9@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-9999</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user12@test.com</t>
+  </si>
+  <si>
+    <t>010-1212-1111</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user13@test.com</t>
+  </si>
+  <si>
+    <t>010-1113-1111</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user14@test.com</t>
+  </si>
+  <si>
+    <t>010-1114-1111</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user15@test.com</t>
+  </si>
+  <si>
+    <t>010-1115-2222</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user16@test.com</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user17@test.com</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user18@test.com</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>view_count</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:14</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user3@test.com</t>
-  </si>
-  <si>
-    <t>010-6544-5435</t>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:19</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user4@test.com</t>
-  </si>
-  <si>
-    <t>010-7655-4534</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>create_date</t>
-  </si>
-  <si>
-    <t>view_count</t>
-  </si>
-  <si>
-    <t>board1</t>
-  </si>
-  <si>
-    <t>board123</t>
-  </si>
-  <si>
-    <t>2024-07-22 12:30:17</t>
-  </si>
-  <si>
-    <t>board2</t>
-  </si>
-  <si>
-    <t>2024-07-24 16:20:19</t>
-  </si>
-  <si>
-    <t>board3</t>
-  </si>
-  <si>
-    <t>2024-07-24 17:35:03</t>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:36</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
+    <t>2024-07-24 17:19:31</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>ffffffff</t>
+  </si>
+  <si>
+    <t>2024-07-24 17:33:41</t>
   </si>
   <si>
     <t>description</t>
@@ -127,40 +259,187 @@
     <t>members</t>
   </si>
   <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2025-03-20</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>2024-02-02</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>created_date</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user5@test.com</t>
-  </si>
-  <si>
-    <t>010-5423-2453</t>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2024-1-1</t>
+  </si>
+  <si>
+    <t>2024-2-2</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>2024-3-3</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>2024-4-4</t>
+  </si>
+  <si>
+    <t>2,5,12</t>
+  </si>
+  <si>
+    <t>p4x</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>2024-5-5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>user20</t>
+  </si>
+  <si>
+    <t>user20@test.com</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>ggggggg</t>
+  </si>
+  <si>
+    <t>2024-07-26 14:23:23</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>user21</t>
+  </si>
+  <si>
+    <t>user21@test.com</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>user22</t>
+  </si>
+  <si>
+    <t>user22@test.co</t>
+  </si>
+  <si>
+    <t>010-1111-3333</t>
+  </si>
+  <si>
+    <t>user21x</t>
+  </si>
+  <si>
+    <t>user21x@test.com</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>user23</t>
+  </si>
+  <si>
+    <t>user23@test.com</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>user24</t>
+  </si>
+  <si>
+    <t>user24@test.com</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>user25</t>
+  </si>
+  <si>
+    <t>user25@test.com</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>user26</t>
+  </si>
+  <si>
+    <t>user26@test.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>user27</t>
+  </si>
+  <si>
+    <t>user27@test.com</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>2024-07-29 17:31:12</t>
+  </si>
+  <si>
+    <t>ddxx</t>
+  </si>
+  <si>
+    <t>dddxxx</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>iiii</t>
+  </si>
+  <si>
+    <t>2024-07-29 17:33:02</t>
+  </si>
+  <si>
+    <t>okok222</t>
+  </si>
+  <si>
+    <t>okokokokok</t>
+  </si>
+  <si>
+    <t>5,6,12,13</t>
   </si>
 </sst>
 </file>
@@ -203,9 +482,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,36 +543,189 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B5" t="s" s="0">
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="B12" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="C12" t="s" s="0">
         <v>48</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -301,9 +733,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -314,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -331,33 +763,33 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -365,16 +797,84 @@
         <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -382,9 +882,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -395,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -415,19 +915,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -435,19 +935,79 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>43</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
